--- a/airfoil_data/Eppler E71/blade_geo/nblades=4/thickness=0.02/hub_diameter=0.085/target_CFM=200/airfoil_data.xlsx
+++ b/airfoil_data/Eppler E71/blade_geo/nblades=4/thickness=0.02/hub_diameter=0.085/target_CFM=200/airfoil_data.xlsx
@@ -480,13 +480,13 @@
         <v>0.0425</v>
       </c>
       <c r="B2" t="n">
-        <v>32.09996792065571</v>
+        <v>34.25688014549718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04200700005654</v>
+        <v>0.0400108514534129</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04262054809801945</v>
+        <v>0.04077232789153713</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0.0425</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0337460269909365</v>
+        <v>0.03227714121069703</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02583516329205189</v>
+        <v>0.02764843856829393</v>
       </c>
     </row>
     <row r="3">
@@ -506,13 +506,13 @@
         <v>0.04552631578947369</v>
       </c>
       <c r="B3" t="n">
-        <v>31.07987674510465</v>
+        <v>33.46559770093309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0431179686304546</v>
+        <v>0.04077540812934261</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04360000333895889</v>
+        <v>0.04141781251638284</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         <v>0.04552631578947369</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03506023955044053</v>
+        <v>0.03326740258527318</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02904178079988565</v>
+        <v>0.03107933967432771</v>
       </c>
     </row>
     <row r="4">
@@ -532,13 +532,13 @@
         <v>0.04855263157894738</v>
       </c>
       <c r="B4" t="n">
-        <v>30.06707642124319</v>
+        <v>32.56181762066055</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0442833745292012</v>
+        <v>0.04166700834712039</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04464899955582016</v>
+        <v>0.04220053946581921</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0.04855263157894738</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03639001186832227</v>
+        <v>0.03433165989266888</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03214226297982707</v>
+        <v>0.03433213017357224</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         <v>0.05157894736842106</v>
       </c>
       <c r="B5" t="n">
-        <v>29.06165509093682</v>
+        <v>31.55892867158652</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04551308056521809</v>
+        <v>0.0426984650314992</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04577388886318329</v>
+        <v>0.04313086699535094</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>0.05157894736842106</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03775165983304288</v>
+        <v>0.03549490088378159</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03514541209723634</v>
+        <v>0.03742325243595045</v>
       </c>
     </row>
     <row r="6">
@@ -584,13 +584,13 @@
         <v>0.05460526315789474</v>
       </c>
       <c r="B6" t="n">
-        <v>28.06370089605101</v>
+        <v>30.47031962061795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04681712995630462</v>
+        <v>0.04388514219047957</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04698179610871816</v>
+        <v>0.04422170545017776</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -599,10 +599,10 @@
         <v>0.05460526315789474</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03915904269363951</v>
+        <v>0.03677875688702977</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03805659128010094</v>
+        <v>0.04036158825402807</v>
       </c>
     </row>
     <row r="7">
@@ -610,13 +610,13 @@
         <v>0.05763157894736842</v>
       </c>
       <c r="B7" t="n">
-        <v>27.07330197845126</v>
+        <v>29.29372165959065</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04820601883238693</v>
+        <v>0.04526380437746516</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04828073942982089</v>
+        <v>0.04550639723385611</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -625,10 +625,10 @@
         <v>0.05763157894736842</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04062461321954218</v>
+        <v>0.03821915546615957</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04087835237297803</v>
+        <v>0.04313577456613343</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         <v>0.06065789473684211</v>
       </c>
       <c r="B8" t="n">
-        <v>26.09054648000304</v>
+        <v>27.77032198692489</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04969096826551143</v>
+        <v>0.04722707839942663</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0496797742591174</v>
+        <v>0.04735567625443173</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -651,10 +651,10 @@
         <v>0.06065789473684211</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04216013559446823</v>
+        <v>0.0401482348005226</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04361081472022588</v>
+        <v>0.04546976397902152</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0.06368421052631579</v>
       </c>
       <c r="B9" t="n">
-        <v>25.11552254257183</v>
+        <v>26.02407368300081</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05128420597471615</v>
+        <v>0.04978768557912842</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05118916628224062</v>
+        <v>0.04977868070377649</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0.06368421052631579</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04377720821644639</v>
+        <v>0.04256481084188234</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04625186170451962</v>
+        <v>0.04736998573310831</v>
       </c>
     </row>
     <row r="10">
@@ -688,13 +688,13 @@
         <v>0.06671052631578947</v>
       </c>
       <c r="B10" t="n">
-        <v>24.14831830802314</v>
+        <v>24.34586343374721</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05299927082948607</v>
+        <v>0.05263289603251897</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05282060037760489</v>
+        <v>0.05247574324146909</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0.06671052631578947</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0454876719980381</v>
+        <v>0.04519394548028598</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0487971927218005</v>
+        <v>0.04906935513387736</v>
       </c>
     </row>
     <row r="11">
@@ -714,13 +714,13 @@
         <v>0.06973684210526315</v>
       </c>
       <c r="B11" t="n">
-        <v>23.18902191822242</v>
+        <v>23.02657792509286</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05485135554933683</v>
+        <v>0.05518654320857653</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05458743458735082</v>
+        <v>0.0549026383610619</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -729,10 +729,10 @@
         <v>0.06973684210526315</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04730395385810632</v>
+        <v>0.04757058785914494</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05124024879139984</v>
+        <v>0.05099280652748754</v>
       </c>
     </row>
     <row r="12">
@@ -740,13 +740,13 @@
         <v>0.07276315789473685</v>
       </c>
       <c r="B12" t="n">
-        <v>22.23758195708149</v>
+        <v>22.28606749560059</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05685801888706686</v>
+        <v>0.05674952734106407</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05650530531718437</v>
+        <v>0.05640324748654713</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0.07276315789473685</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04923962636795309</v>
+        <v>0.04915333754121718</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05357178680946514</v>
+        <v>0.05365096975240592</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         <v>0.07578947368421053</v>
       </c>
       <c r="B13" t="n">
-        <v>21.29324921874373</v>
+        <v>21.83359161530912</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05904119598147452</v>
+        <v>0.05774633751050579</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05859394949002706</v>
+        <v>0.05737485176061065</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0.07578947368421053</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05131091093524905</v>
+        <v>0.05027813470395714</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0557784433300588</v>
+        <v>0.05671114081042967</v>
       </c>
     </row>
     <row r="14">
@@ -792,13 +792,13 @@
         <v>0.07881578947368421</v>
       </c>
       <c r="B14" t="n">
-        <v>20.35597228712096</v>
+        <v>21.49184395289557</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06142491731303332</v>
+        <v>0.05852036389296655</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06087497787448762</v>
+        <v>0.05813816958312077</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>0.07881578947368421</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05353467264212821</v>
+        <v>0.05121174198796257</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05784433849099047</v>
+        <v>0.05991065141457287</v>
       </c>
     </row>
     <row r="15">
@@ -818,13 +818,13 @@
         <v>0.0818421052631579</v>
       </c>
       <c r="B15" t="n">
-        <v>19.42583930407865</v>
+        <v>21.13728684310364</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06403702180355486</v>
+        <v>0.05935326654695736</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06337338993934456</v>
+        <v>0.05895838526960353</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0.0818421052631579</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05592950786730511</v>
+        <v>0.0521816093558741</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0597496472259617</v>
+        <v>0.06304926517364631</v>
       </c>
     </row>
     <row r="16">
@@ -844,13 +844,13 @@
         <v>0.08486842105263159</v>
       </c>
       <c r="B16" t="n">
-        <v>18.50293841148228</v>
+        <v>20.646382620677</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06691044940440444</v>
+        <v>0.06057012969460943</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06611866245915647</v>
+        <v>0.06014433500079879</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0.08486842105263159</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05851634731050821</v>
+        <v>0.0534607674408798</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06146939067050153</v>
+        <v>0.06591354365074698</v>
       </c>
     </row>
     <row r="17">
@@ -870,13 +870,13 @@
         <v>0.08789473684210528</v>
       </c>
       <c r="B17" t="n">
-        <v>17.58735775119735</v>
+        <v>19.88007272127997</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07008454588964658</v>
+        <v>0.06261866022288327</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06914580061018</v>
+        <v>0.06212197078531648</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>0.08789473684210528</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06131886031828985</v>
+        <v>0.05542495711070284</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06297207423778414</v>
+        <v>0.06821699856941589</v>
       </c>
     </row>
     <row r="18">
@@ -896,13 +896,13 @@
         <v>0.09092105263157896</v>
       </c>
       <c r="B18" t="n">
-        <v>16.67918546508933</v>
+        <v>18.77188399713743</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0736067798436028</v>
+        <v>0.06592084487284088</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07249670008709398</v>
+        <v>0.06528894112875185</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0.09092105263157896</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0643638799479519</v>
+        <v>0.05840747887282694</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06421782283509764</v>
+        <v>0.06967929551419579</v>
       </c>
     </row>
     <row r="19">
@@ -922,13 +922,13 @@
         <v>0.09394736842105264</v>
       </c>
       <c r="B19" t="n">
-        <v>15.7785096950237</v>
+        <v>17.38074662305529</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07753503869190563</v>
+        <v>0.07073317183481717</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07622193316110155</v>
+        <v>0.06987568218679391</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -937,10 +937,10 @@
         <v>0.09394736842105264</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06768182187790438</v>
+        <v>0.06255759691266916</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06515580573155874</v>
+        <v>0.07009033529491071</v>
       </c>
     </row>
     <row r="20">
@@ -948,13 +948,13 @@
         <v>0.09697368421052632</v>
       </c>
       <c r="B20" t="n">
-        <v>14.88541858286595</v>
+        <v>15.76925418538589</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08194075274712351</v>
+        <v>0.07749075927815786</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08038312101286541</v>
+        <v>0.07626253295955512</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>0.09697368421052632</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07130703486898902</v>
+        <v>0.0680894274550099</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06572063760764701</v>
+        <v>0.06904871684696123</v>
       </c>
     </row>
     <row r="21">
@@ -977,10 +977,10 @@
         <v>14.00000027048157</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08691322809205497</v>
+        <v>0.08691322809205498</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08505612981975107</v>
+        <v>0.08505612981975108</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07527795169130198</v>
+        <v>0.075277951691302</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06582727390042828</v>
+        <v>0.06582727390042827</v>
       </c>
     </row>
   </sheetData>
